--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Platform Project\Test_Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngo Tien Dat\Desktop\New folder\Test_Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reading_test" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="160">
   <si>
     <t>Passage_ID</t>
   </si>
@@ -134,9 +134,6 @@
     <t>blog</t>
   </si>
   <si>
-    <t>NOT GIVEN</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -519,6 +516,15 @@
   </si>
   <si>
     <t>Para_Intro</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,6 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -924,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>13</v>
@@ -1006,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,18 +1030,18 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -1051,7 +1058,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1068,7 +1075,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -1085,7 +1092,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -1102,7 +1109,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -1119,7 +1126,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -1136,7 +1143,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1153,588 +1160,588 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="b">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="b">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1742,9 +1749,9 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="1">
+        <v>90</v>
+      </c>
+      <c r="B44" s="6">
         <v>20</v>
       </c>
       <c r="C44" s="1"/>
@@ -1753,10 +1760,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1764,10 +1771,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1775,10 +1782,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1786,10 +1793,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1797,10 +1804,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1808,10 +1815,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1819,10 +1826,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1830,10 +1837,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1841,10 +1848,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1852,10 +1859,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1863,10 +1870,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1874,10 +1881,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1885,10 +1892,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1896,10 +1903,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1907,10 +1914,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1918,10 +1925,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1929,10 +1936,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1940,10 +1947,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1951,10 +1958,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1962,10 +1969,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1973,10 +1980,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1984,10 +1991,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1995,10 +2002,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2006,10 +2013,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2017,10 +2024,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2028,10 +2035,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2039,10 +2046,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2050,10 +2057,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2061,10 +2068,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2072,10 +2079,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2083,23 +2090,23 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2107,27 +2114,27 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2135,10 +2142,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2146,23 +2153,23 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
